--- a/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
+++ b/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:56+00:00</t>
+    <t>2026-01-20T13:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
+++ b/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:17:20+00:00</t>
+    <t>2026-01-20T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
+++ b/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:37:49+00:00</t>
+    <t>2026-01-23T17:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
+++ b/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T17:02:12+00:00</t>
+    <t>2026-02-26T14:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
+++ b/main/ig/StructureDefinition-MESObservationHeadCircumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T14:10:00+00:00</t>
+    <t>2026-02-26T14:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
